--- a/uyg_d04_alt_toplam.xlsx
+++ b/uyg_d04_alt_toplam.xlsx
@@ -619,20 +619,7 @@
     <cellStyle name="Virgül 5" xfId="28"/>
     <cellStyle name="Yüzde 2" xfId="29"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -938,7 +925,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,40 +975,40 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I41" si="0">G2*H2</f>
-        <v>55</v>
+        <f>G2*H2</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>51</v>
@@ -1039,175 +1026,175 @@
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>G3*H3</f>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>8</v>
+      <c r="G4" s="2">
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>G4*H4</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f>G5*H5</f>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>G6*H6</f>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>G7*H7</f>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>73.5</v>
+        <f>G8*H8</f>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>102</v>
@@ -1216,208 +1203,208 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <f>G9*H9</f>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>G10*H10</f>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>G11*H11</f>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>9.8000000000000007</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>88.2</v>
+        <f>G12*H12</f>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>G13*H13</f>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>480</v>
+        <f>G14*H14</f>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1">
         <v>8</v>
       </c>
       <c r="G15" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f>G15*H15</f>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>8</v>
@@ -1425,176 +1412,176 @@
       <c r="F16" s="1">
         <v>8</v>
       </c>
-      <c r="G16" s="2">
-        <v>9</v>
+      <c r="G16" s="1">
+        <v>8</v>
       </c>
       <c r="H16" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f>G16*H16</f>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <f>G17*H17</f>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>8</v>
+        <v>6.85</v>
       </c>
       <c r="H18" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>G18*H18</f>
+        <v>102.75</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>G19*H19</f>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>G20*H20</f>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>7.45</v>
       </c>
       <c r="H21" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>G21*H21</f>
+        <v>178.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -1606,58 +1593,58 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f>G22*H22</f>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>196</v>
+        <f>G23*H23</f>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>8</v>
@@ -1666,88 +1653,88 @@
         <v>8</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>1400</v>
+        <f>G24*H24</f>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="1">
         <v>8</v>
       </c>
       <c r="G25" s="2">
-        <v>6.85</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>102.75</v>
+        <f>G25*H25</f>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2">
         <v>20</v>
       </c>
       <c r="H26" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>G26*H26</f>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>8</v>
@@ -1756,175 +1743,175 @@
         <v>8</v>
       </c>
       <c r="G27" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>G27*H27</f>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>608</v>
+        <f>G28*H28</f>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H29" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>306</v>
+        <f>G29*H29</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F30" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="0"/>
-        <v>816</v>
+        <f>G30*H30</f>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <f>G31*H31</f>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
+      <c r="E32" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <f>G32*H32</f>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>7</v>
@@ -1936,142 +1923,142 @@
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f>G33*H33</f>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>540</v>
+        <f>G34*H34</f>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="0"/>
-        <v>950</v>
+        <f>G35*H35</f>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>G36*H36</f>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f>G37*H37</f>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>92</v>
@@ -2083,88 +2070,88 @@
         <v>8</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="0"/>
-        <v>264</v>
+        <f>G38*H38</f>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="0"/>
-        <v>144</v>
+        <f>G39*H39</f>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
       <c r="G40" s="2">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="H40" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <f>G40*H40</f>
+        <v>73.5</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>7</v>
@@ -2173,22 +2160,22 @@
         <v>8</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2">
-        <v>7.45</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H41" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="0"/>
-        <v>178.8</v>
+        <f>G41*H41</f>
+        <v>88.2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I41">
-    <sortCondition ref="H3"/>
+    <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
